--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_23_25.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_23_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1443768.258466375</v>
+        <v>1441516.178755167</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283191</v>
+        <v>416855.1052283195</v>
       </c>
     </row>
     <row r="9">
@@ -662,13 +662,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
@@ -677,7 +677,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,7 +710,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -719,13 +719,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>87.99939789535634</v>
+        <v>108.2462644793318</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -753,10 +753,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247723</v>
+        <v>18.81721868247633</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -835,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>61.36917500887014</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,13 +862,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>161.2026687524962</v>
       </c>
       <c r="U4" t="n">
         <v>286.2118382056129</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -905,13 +905,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -947,7 +947,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
@@ -959,10 +959,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>44.75951530680794</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>357.5738180516794</v>
       </c>
     </row>
     <row r="6">
@@ -990,10 +990,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1051,22 +1051,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1099,13 +1099,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>100.7749839721236</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1114,7 +1114,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>129.5898374232945</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1142,16 +1142,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>33.78298043858104</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>41.41379075544631</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,10 +1181,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
@@ -1196,10 +1196,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,10 +1257,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1288,19 +1288,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1339,25 +1339,25 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>117.4014735002805</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>58.28185552386407</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1370,7 +1370,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710079</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695619</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1537,13 +1537,13 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>9.146142788180269</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>103.1686991936197</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1771,16 +1771,16 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>9.146142788180269</v>
+        <v>102.1557845699804</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012262</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1847,7 +1847,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1859,7 +1859,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -2008,16 +2008,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>41.55695577161148</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>99.97427419833647</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2065,7 +2065,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>225.7096553890389</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2090,10 +2090,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2242,19 +2242,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>115.7228684476123</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>102.1557845699769</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2330,7 +2330,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2479,19 +2479,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>9.146142788179368</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>103.1686991936179</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2609,7 +2609,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>179.8319801819411</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -2722,13 +2722,13 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>86.24032515900413</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>0.8253826161870756</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2776,7 +2776,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2953,19 +2953,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>103.1686991936193</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3041,10 +3041,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3187,25 +3187,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>101.6969570046953</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,16 +3232,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.40545032729</v>
       </c>
       <c r="U34" t="n">
-        <v>172.0260335000785</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3269,7 +3269,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3427,19 +3427,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>103.1686991936193</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3475,7 +3475,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>160.1763464053446</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3664,13 +3664,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>20.92847288552876</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3898,13 +3898,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>104.8913819999782</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>107.4021082756239</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -4138,22 +4138,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.0280580960833</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>19.91555826189063</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4195,7 +4195,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4304,34 +4304,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1559.116588708439</v>
+        <v>1555.338782035317</v>
       </c>
       <c r="C2" t="n">
-        <v>1190.154071768027</v>
+        <v>1186.376265094905</v>
       </c>
       <c r="D2" t="n">
-        <v>1190.154071768027</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="E2" t="n">
-        <v>1190.154071768027</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F2" t="n">
-        <v>779.1681669784198</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J2" t="n">
         <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
@@ -4340,16 +4340,16 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R2" t="n">
         <v>3325.60582160917</v>
@@ -4361,19 +4361,19 @@
         <v>3009.337405520487</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794324</v>
+        <v>2755.806928794323</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450753</v>
+        <v>2424.744041450752</v>
       </c>
       <c r="W2" t="n">
-        <v>2335.855760748373</v>
+        <v>2315.404380360518</v>
       </c>
       <c r="X2" t="n">
-        <v>2335.855760748373</v>
+        <v>1941.938622099438</v>
       </c>
       <c r="Y2" t="n">
-        <v>1945.716428772561</v>
+        <v>1941.938622099438</v>
       </c>
     </row>
     <row r="3">
@@ -4383,37 +4383,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927777</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064433</v>
       </c>
       <c r="I3" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J3" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
@@ -4425,31 +4425,31 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y3" t="n">
         <v>1109.759191501176</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>128.5011820977088</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="C4" t="n">
-        <v>128.5011820977088</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="D4" t="n">
-        <v>128.5011820977088</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="E4" t="n">
-        <v>128.5011820977088</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="F4" t="n">
-        <v>128.5011820977088</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G4" t="n">
-        <v>128.5011820977088</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H4" t="n">
-        <v>128.5011820977088</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962282</v>
       </c>
       <c r="K4" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372931</v>
       </c>
       <c r="L4" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596504</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588481</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886956</v>
       </c>
       <c r="O4" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R4" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="S4" t="n">
-        <v>639.3706644025392</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="T4" t="n">
-        <v>417.6040489720652</v>
+        <v>758.0560272803096</v>
       </c>
       <c r="U4" t="n">
-        <v>128.5011820977088</v>
+        <v>468.9531604059532</v>
       </c>
       <c r="V4" t="n">
-        <v>128.5011820977088</v>
+        <v>468.9531604059532</v>
       </c>
       <c r="W4" t="n">
-        <v>128.5011820977088</v>
+        <v>468.9531604059532</v>
       </c>
       <c r="X4" t="n">
-        <v>128.5011820977088</v>
+        <v>468.9531604059532</v>
       </c>
       <c r="Y4" t="n">
-        <v>128.5011820977088</v>
+        <v>248.1605812624231</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1636.624422581789</v>
+        <v>1530.167618932618</v>
       </c>
       <c r="C5" t="n">
-        <v>1636.624422581789</v>
+        <v>1530.167618932618</v>
       </c>
       <c r="D5" t="n">
-        <v>1278.358723975039</v>
+        <v>1171.901920325867</v>
       </c>
       <c r="E5" t="n">
-        <v>892.5704713767946</v>
+        <v>786.1136677276232</v>
       </c>
       <c r="F5" t="n">
-        <v>481.5845665871869</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G5" t="n">
-        <v>66.51211643218342</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810557</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794324</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450754</v>
+        <v>2630.72178906653</v>
       </c>
       <c r="W5" t="n">
-        <v>2071.975386180639</v>
+        <v>2277.953133796416</v>
       </c>
       <c r="X5" t="n">
-        <v>2026.763754557601</v>
+        <v>2277.953133796416</v>
       </c>
       <c r="Y5" t="n">
-        <v>1636.624422581789</v>
+        <v>1916.76745899674</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387314</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927789</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158141</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
         <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>700.1577228956174</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="C7" t="n">
-        <v>531.2215399677106</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="D7" t="n">
-        <v>381.1049005553748</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="E7" t="n">
-        <v>381.1049005553748</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="F7" t="n">
-        <v>234.2149530574645</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962282</v>
       </c>
       <c r="K7" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372931</v>
       </c>
       <c r="L7" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596504</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588481</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886956</v>
       </c>
       <c r="O7" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R7" t="n">
-        <v>831.0565485757129</v>
+        <v>831.0565485757124</v>
       </c>
       <c r="S7" t="n">
-        <v>831.0565485757129</v>
+        <v>639.3706644025388</v>
       </c>
       <c r="T7" t="n">
-        <v>831.0565485757129</v>
+        <v>537.5777512993836</v>
       </c>
       <c r="U7" t="n">
-        <v>831.0565485757129</v>
+        <v>537.5777512993836</v>
       </c>
       <c r="V7" t="n">
-        <v>831.0565485757129</v>
+        <v>537.5777512993836</v>
       </c>
       <c r="W7" t="n">
-        <v>700.1577228956174</v>
+        <v>248.1605812624231</v>
       </c>
       <c r="X7" t="n">
-        <v>700.1577228956174</v>
+        <v>248.1605812624231</v>
       </c>
       <c r="Y7" t="n">
-        <v>700.1577228956174</v>
+        <v>248.1605812624231</v>
       </c>
     </row>
     <row r="8">
@@ -4778,34 +4778,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1624.638712032431</v>
+        <v>1685.375546116516</v>
       </c>
       <c r="C8" t="n">
-        <v>1255.676195092019</v>
+        <v>1316.413029176105</v>
       </c>
       <c r="D8" t="n">
-        <v>897.4104964852686</v>
+        <v>958.1473305693542</v>
       </c>
       <c r="E8" t="n">
-        <v>511.6222438870244</v>
+        <v>572.3590779711099</v>
       </c>
       <c r="F8" t="n">
-        <v>100.6363390974168</v>
+        <v>565.4135772219064</v>
       </c>
       <c r="G8" t="n">
-        <v>66.51211643218342</v>
+        <v>150.3411270669029</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810551</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
@@ -4814,40 +4814,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U8" t="n">
-        <v>3072.075344883007</v>
+        <v>2755.806928794323</v>
       </c>
       <c r="V8" t="n">
-        <v>2741.012457539437</v>
+        <v>2424.744041450752</v>
       </c>
       <c r="W8" t="n">
-        <v>2388.243802269322</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X8" t="n">
-        <v>2014.778044008242</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="Y8" t="n">
-        <v>1624.638712032431</v>
+        <v>2071.975386180638</v>
       </c>
     </row>
     <row r="9">
@@ -4857,46 +4857,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064544</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031473</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158128</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4914,7 +4914,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4923,10 +4923,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>680.3679798527295</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="C10" t="n">
-        <v>511.4317969248226</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="D10" t="n">
-        <v>361.3151575124869</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="E10" t="n">
-        <v>213.4020639300938</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J10" t="n">
-        <v>78.3348699696229</v>
+        <v>78.33486996962284</v>
       </c>
       <c r="K10" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L10" t="n">
-        <v>332.3555681596507</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588485</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886961</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O10" t="n">
-        <v>809.015235706886</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596446</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R10" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S10" t="n">
-        <v>920.8870058181855</v>
+        <v>729.2011216450112</v>
       </c>
       <c r="T10" t="n">
-        <v>920.8870058181855</v>
+        <v>729.2011216450112</v>
       </c>
       <c r="U10" t="n">
-        <v>920.8870058181855</v>
+        <v>610.6137746750309</v>
       </c>
       <c r="V10" t="n">
-        <v>920.8870058181855</v>
+        <v>355.929286469144</v>
       </c>
       <c r="W10" t="n">
-        <v>920.8870058181855</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="X10" t="n">
-        <v>920.8870058181855</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="Y10" t="n">
-        <v>862.0164446829692</v>
+        <v>66.51211643218339</v>
       </c>
     </row>
     <row r="11">
@@ -5018,7 +5018,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5027,28 +5027,28 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.8166630479719</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
         <v>2950.898526355938</v>
@@ -5060,10 +5060,10 @@
         <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
         <v>4606.285157492579</v>
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797191</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797191</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797191</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L12" t="n">
-        <v>119.2902967703778</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>716.6687843969299</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951537</v>
+        <v>1702.07903472198</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190824</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>580.8993044876697</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C13" t="n">
-        <v>411.9631215597628</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D13" t="n">
-        <v>411.9631215597628</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E13" t="n">
-        <v>411.9631215597628</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908939</v>
+        <v>198.0274703142544</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>198.0274703142544</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782958</v>
@@ -5206,7 +5206,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
         <v>1665.560112570818</v>
@@ -5215,34 +5215,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235166</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258107</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602305</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1500.747069396418</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1211.329899359457</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>983.3403484614396</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y13" t="n">
-        <v>762.5477693179095</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="14">
@@ -5255,7 +5255,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5264,13 +5264,13 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
@@ -5279,46 +5279,46 @@
         <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.41387069471</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797191</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797191</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>352.5519571452603</v>
+        <v>943.510265746755</v>
       </c>
       <c r="M15" t="n">
-        <v>949.9304447718124</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="N15" t="n">
-        <v>1577.528408326419</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>580.8993044876697</v>
+        <v>513.8536007400703</v>
       </c>
       <c r="C16" t="n">
-        <v>411.9631215597628</v>
+        <v>344.9174178121634</v>
       </c>
       <c r="D16" t="n">
-        <v>411.9631215597628</v>
+        <v>344.9174178121634</v>
       </c>
       <c r="E16" t="n">
-        <v>411.9631215597628</v>
+        <v>197.0043242297703</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235166</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258107</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602305</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V16" t="n">
-        <v>1500.747069396418</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W16" t="n">
-        <v>1211.329899359457</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>983.3403484614396</v>
+        <v>916.2946447138402</v>
       </c>
       <c r="Y16" t="n">
-        <v>762.5477693179095</v>
+        <v>695.50206557031</v>
       </c>
     </row>
     <row r="17">
@@ -5495,37 +5495,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5592,13 +5592,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L18" t="n">
-        <v>119.290296770379</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="M18" t="n">
         <v>716.6687843969308</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>763.7541388327643</v>
+        <v>513.8536007400695</v>
       </c>
       <c r="C19" t="n">
-        <v>594.8179559048574</v>
+        <v>344.9174178121626</v>
       </c>
       <c r="D19" t="n">
-        <v>444.7013164925216</v>
+        <v>194.8007783998269</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998269</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998269</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>194.8007783998269</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138394</v>
       </c>
       <c r="Y19" t="n">
-        <v>945.402603663004</v>
+        <v>695.5020655703092</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="M21" t="n">
-        <v>691.1951506745238</v>
+        <v>691.1951506745237</v>
       </c>
       <c r="N21" t="n">
         <v>1318.79311422913</v>
       </c>
       <c r="O21" t="n">
-        <v>1870.702844468417</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>983.3556038098237</v>
+        <v>513.8536007400667</v>
       </c>
       <c r="C22" t="n">
-        <v>814.4194208819168</v>
+        <v>344.9174178121598</v>
       </c>
       <c r="D22" t="n">
-        <v>697.5276345711974</v>
+        <v>344.9174178121598</v>
       </c>
       <c r="E22" t="n">
-        <v>549.6145409888043</v>
+        <v>197.0043242297667</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>197.0043242297667</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5923,37 +5923,37 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279798</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853356</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580256</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832658</v>
       </c>
       <c r="S22" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487563</v>
       </c>
       <c r="T22" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510504</v>
       </c>
       <c r="U22" t="n">
-        <v>2157.887856924458</v>
+        <v>1688.385853854702</v>
       </c>
       <c r="V22" t="n">
-        <v>1903.203368718571</v>
+        <v>1433.701365648815</v>
       </c>
       <c r="W22" t="n">
-        <v>1613.786198681611</v>
+        <v>1144.284195611854</v>
       </c>
       <c r="X22" t="n">
-        <v>1385.796647783593</v>
+        <v>916.2946447138365</v>
       </c>
       <c r="Y22" t="n">
-        <v>1165.004068640063</v>
+        <v>695.5020655703064</v>
       </c>
     </row>
     <row r="23">
@@ -5969,37 +5969,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6066,28 +6066,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L24" t="n">
-        <v>95.58405025273903</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M24" t="n">
-        <v>692.9625378792909</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N24" t="n">
-        <v>1320.560501433898</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
-        <v>1872.470231673185</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2296.093381168253</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2529.355041543135</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400699</v>
       </c>
       <c r="C25" t="n">
-        <v>411.9631215597619</v>
+        <v>344.917417812163</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908939</v>
+        <v>344.917417812163</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6163,34 +6163,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W25" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X25" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138397</v>
       </c>
       <c r="Y25" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703096</v>
       </c>
     </row>
     <row r="26">
@@ -6206,67 +6206,67 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6297,25 +6297,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O27" t="n">
         <v>1859.536823237711</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>808.8888553856862</v>
+        <v>580.0655846733346</v>
       </c>
       <c r="C28" t="n">
-        <v>639.9526724577793</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D28" t="n">
-        <v>489.8360330454435</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E28" t="n">
-        <v>489.8360330454435</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.12936376593</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2263.274529420834</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>2043.673064443775</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1754.597837787973</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>1499.913349582086</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359456</v>
+        <v>1210.496179545125</v>
       </c>
       <c r="X28" t="n">
-        <v>1211.329899359456</v>
+        <v>982.5066286471082</v>
       </c>
       <c r="Y28" t="n">
-        <v>990.5373202159259</v>
+        <v>761.7140495035781</v>
       </c>
     </row>
     <row r="29">
@@ -6449,22 +6449,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6476,7 +6476,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6540,28 +6540,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="L30" t="n">
-        <v>589.1422692637306</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M30" t="n">
-        <v>1186.520756890282</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N30" t="n">
-        <v>1814.118720444889</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
-        <v>2366.028450684176</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6601,16 +6601,16 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6689,7 +6689,7 @@
         <v>793.7736536168607</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
@@ -6704,13 +6704,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6777,25 +6777,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M33" t="n">
-        <v>1373.553594266881</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N33" t="n">
-        <v>2001.151557821488</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400694</v>
       </c>
       <c r="C34" t="n">
-        <v>929.7309773356195</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D34" t="n">
-        <v>779.6143379232838</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E34" t="n">
-        <v>631.7012443408906</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6880,28 +6880,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510506</v>
       </c>
       <c r="U34" t="n">
-        <v>2273.199413378161</v>
+        <v>1688.385853854704</v>
       </c>
       <c r="V34" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.701365648817</v>
       </c>
       <c r="W34" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X34" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138393</v>
       </c>
       <c r="Y34" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703091</v>
       </c>
     </row>
     <row r="35">
@@ -6923,16 +6923,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111715</v>
@@ -6950,7 +6950,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7011,31 +7011,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M36" t="n">
-        <v>1373.553594266881</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N36" t="n">
-        <v>2001.151557821488</v>
+        <v>1965.532750177311</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>1965.532750177311</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908939</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908939</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7102,43 +7102,43 @@
         <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.150240910807</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570816</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580259</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832661</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487566</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7160,16 +7160,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111715</v>
@@ -7251,25 +7251,25 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>95.58405025273903</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>95.58405025273903</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>692.9625378792909</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q39" t="n">
         <v>2516.421633107662</v>
@@ -7306,16 +7306,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>559.7594328861248</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>390.823249958218</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>240.7066105458822</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>240.7066105458822</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F40" t="n">
         <v>93.81666304797187</v>
@@ -7354,28 +7354,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2425.823211978716</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2242.968377633621</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2023.366912656562</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1734.29168600076</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1479.607197794873</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1190.190027757912</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>962.2004768598947</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>741.4078977163646</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7385,19 +7385,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362683</v>
@@ -7406,10 +7406,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075813</v>
@@ -7442,19 +7442,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L42" t="n">
-        <v>589.1422692637306</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M42" t="n">
-        <v>949.9304447718133</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="N42" t="n">
-        <v>1577.52840832642</v>
+        <v>1552.432392194325</v>
       </c>
       <c r="O42" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,13 +7543,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>705.9324428257312</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D43" t="n">
-        <v>555.8158034133954</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E43" t="n">
         <v>407.9027098310023</v>
@@ -7591,28 +7591,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2338.476105524075</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>2049.400878868273</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1794.716390662386</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7622,22 +7622,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
@@ -7661,7 +7661,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7722,22 +7722,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L45" t="n">
-        <v>589.1422692637306</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M45" t="n">
-        <v>1186.520756890282</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O45" t="n">
         <v>1859.536823237711</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>803.2707707770319</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C46" t="n">
-        <v>634.334587849125</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D46" t="n">
-        <v>484.8112968429803</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E46" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7828,28 +7828,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2426.846358063199</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2243.991523718104</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W46" t="n">
-        <v>1433.701365648819</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X46" t="n">
-        <v>1205.711814750802</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y46" t="n">
-        <v>984.9192356072716</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
   </sheetData>
@@ -23425,16 +23425,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>136.274905234751</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>37.12601365260414</v>
       </c>
       <c r="I13" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23659,19 +23659,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>136.274905234751</v>
+        <v>43.2652634529508</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23747,7 +23747,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23896,16 +23896,16 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>104.8770068749577</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>40.32043864788741</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23978,7 +23978,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -24130,19 +24130,19 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>32.8926045706001</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>63.36835372229199</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24172,13 +24172,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24367,19 +24367,19 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>139.469330230033</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>43.26526345295125</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24455,7 +24455,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -24610,13 +24610,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>59.18072286392712</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>65.54986409393462</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24664,7 +24664,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24841,19 +24841,19 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>45.44677382459308</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24932,7 +24932,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -25075,25 +25075,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>65.54986409393254</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,16 +25120,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25315,19 +25315,19 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>45.44677382459308</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25363,7 +25363,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>57.2291039219437</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25388,7 +25388,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -25552,13 +25552,13 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>43.26526345294991</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>45.44677382459292</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25786,13 +25786,13 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>41.54258064659096</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -25831,13 +25831,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>110.0033420516644</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26026,22 +26026,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0.5874149221290565</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>46.45968844823106</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26083,7 +26083,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>922068.6358465403</v>
+        <v>922068.6358465402</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>922068.6358465403</v>
+        <v>922068.6358465401</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>922068.6358465403</v>
+        <v>922068.6358465402</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>922068.6358465404</v>
+        <v>922068.6358465401</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>922068.6358465403</v>
+        <v>922068.6358465401</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>922068.6358465403</v>
+        <v>922068.6358465401</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>922068.6358465404</v>
+        <v>922068.6358465402</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>922068.6358465402</v>
+        <v>922068.6358465401</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>922068.6358465403</v>
+        <v>922068.6358465402</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>922068.6358465403</v>
+        <v>922068.6358465402</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>513151.106165177</v>
+        <v>513151.1061651771</v>
       </c>
       <c r="C2" t="n">
-        <v>513151.106165177</v>
+        <v>513151.1061651771</v>
       </c>
       <c r="D2" t="n">
         <v>513151.106165177</v>
       </c>
       <c r="E2" t="n">
-        <v>504466.6248062538</v>
+        <v>504466.6248062536</v>
       </c>
       <c r="F2" t="n">
-        <v>504466.6248062539</v>
+        <v>504466.6248062536</v>
       </c>
       <c r="G2" t="n">
         <v>504466.6248062537</v>
       </c>
       <c r="H2" t="n">
-        <v>504466.6248062539</v>
+        <v>504466.6248062536</v>
       </c>
       <c r="I2" t="n">
-        <v>504466.6248062538</v>
+        <v>504466.6248062536</v>
       </c>
       <c r="J2" t="n">
         <v>504466.6248062538</v>
       </c>
       <c r="K2" t="n">
+        <v>504466.6248062538</v>
+      </c>
+      <c r="L2" t="n">
         <v>504466.6248062537</v>
       </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
+        <v>504466.6248062537</v>
+      </c>
+      <c r="N2" t="n">
+        <v>504466.6248062537</v>
+      </c>
+      <c r="O2" t="n">
         <v>504466.6248062536</v>
       </c>
-      <c r="M2" t="n">
+      <c r="P2" t="n">
         <v>504466.6248062536</v>
-      </c>
-      <c r="N2" t="n">
-        <v>504466.6248062538</v>
-      </c>
-      <c r="O2" t="n">
-        <v>504466.6248062537</v>
-      </c>
-      <c r="P2" t="n">
-        <v>504466.6248062539</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972774</v>
+        <v>217531.2023972773</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551193</v>
+        <v>85055.02793551196</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93596.74410405257</v>
+        <v>93596.74410405263</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.74410405253</v>
+        <v>93596.7441040526</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.74410405252</v>
+        <v>93596.7441040526</v>
       </c>
       <c r="E4" t="n">
         <v>14826.69604186736</v>
@@ -26476,10 +26476,10 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="F5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="G5" t="n">
         <v>101122.5298239071</v>
@@ -26522,46 +26522,46 @@
         <v>-1017124.324227861</v>
       </c>
       <c r="C6" t="n">
-        <v>311620.4214997311</v>
+        <v>311620.4214997313</v>
       </c>
       <c r="D6" t="n">
         <v>311620.421499731</v>
       </c>
       <c r="E6" t="n">
-        <v>63104.93713312384</v>
+        <v>63070.19920768794</v>
       </c>
       <c r="F6" t="n">
-        <v>388517.3989404794</v>
+        <v>388482.6610150436</v>
       </c>
       <c r="G6" t="n">
-        <v>388517.3989404797</v>
+        <v>388482.6610150435</v>
       </c>
       <c r="H6" t="n">
-        <v>388517.3989404794</v>
+        <v>388482.6610150434</v>
       </c>
       <c r="I6" t="n">
-        <v>388517.3989404793</v>
+        <v>388482.6610150434</v>
       </c>
       <c r="J6" t="n">
-        <v>170986.1965432019</v>
+        <v>170951.4586177662</v>
       </c>
       <c r="K6" t="n">
-        <v>388517.3989404792</v>
+        <v>388482.6610150436</v>
       </c>
       <c r="L6" t="n">
-        <v>388517.3989404792</v>
+        <v>388482.6610150435</v>
       </c>
       <c r="M6" t="n">
-        <v>303462.3710049672</v>
+        <v>303427.6330795315</v>
       </c>
       <c r="N6" t="n">
-        <v>388517.3989404793</v>
+        <v>388482.6610150435</v>
       </c>
       <c r="O6" t="n">
-        <v>388517.3989404792</v>
+        <v>388482.6610150434</v>
       </c>
       <c r="P6" t="n">
-        <v>388517.3989404794</v>
+        <v>388482.6610150434</v>
       </c>
     </row>
   </sheetData>
@@ -26741,7 +26741,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,19 +26787,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973561</v>
+        <v>341.3068326973562</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022922</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973561</v>
+        <v>341.3068326973562</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973561</v>
+        <v>341.3068326973562</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27382,13 +27382,13 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27397,7 +27397,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27439,13 +27439,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>261.2415708220567</v>
+        <v>240.9947042380812</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27476,7 +27476,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.882938249764265e-13</v>
+        <v>1.119104808822158e-12</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27555,7 +27555,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>34.98324540096795</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,13 +27582,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>58.34628052367304</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -27603,7 +27603,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27625,16 +27625,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,7 +27667,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27679,10 +27679,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>324.9715853716611</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>28.66412060437415</v>
       </c>
     </row>
     <row r="6">
@@ -27771,28 +27771,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27822,10 +27822,10 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>118.7739653040456</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
@@ -27834,7 +27834,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>156.9331609132965</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27862,16 +27862,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>377.1387452148724</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>253.1939736318741</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292592</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,10 +27901,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27916,10 +27916,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,19 +28008,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
@@ -28056,28 +28056,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>168.8103647053323</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>160.3027978282307</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28324,7 +28324,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -28567,7 +28567,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -28785,7 +28785,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>-1.571301715478522e-13</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -28995,7 +28995,7 @@
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>-4.713266813875332e-12</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
@@ -29050,7 +29050,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -29235,7 +29235,7 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>-1.696776052995119e-12</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -29329,7 +29329,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -29430,7 +29430,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>-2.230967569652997e-12</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -29761,7 +29761,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -29958,7 +29958,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>-1.696776052995119e-12</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -29989,7 +29989,7 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -31039,43 +31039,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31124,40 +31124,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31197,13 +31197,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31212,16 +31212,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31230,16 +31230,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,43 +31276,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31361,40 +31361,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31434,13 +31434,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31449,16 +31449,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31467,16 +31467,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,7 +31513,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
         <v>44.86703772844668</v>
@@ -31522,40 +31522,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,46 +31592,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026431</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31674,43 +31674,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780295</v>
@@ -31750,40 +31750,40 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
         <v>125.3175546292901</v>
@@ -31792,7 +31792,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31835,37 +31835,37 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>164.2853229338195</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862124</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437245</v>
+        <v>301.6445156724557</v>
       </c>
       <c r="P12" t="n">
-        <v>561.87657862147</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
         <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
@@ -31908,13 +31908,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796262</v>
@@ -31932,7 +31932,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
@@ -31944,7 +31944,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>399.9031616963271</v>
+        <v>508.374771698973</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071787</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.87657862147</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32312,16 +32312,16 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>164.2853229338207</v>
+        <v>616.5397119226058</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
@@ -32564,7 +32564,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>688.8020111197787</v>
       </c>
       <c r="P21" t="n">
         <v>561.8765786214698</v>
@@ -32573,7 +32573,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32786,19 +32786,19 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>714.932815742495</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
@@ -32810,7 +32810,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>169.6252075171357</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33020,25 +33020,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>194.5189324111251</v>
       </c>
       <c r="M27" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
         <v>561.8765786214698</v>
@@ -33205,7 +33205,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
         <v>125.31755462929</v>
@@ -33260,7 +33260,7 @@
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>249.1672590991333</v>
       </c>
       <c r="K30" t="n">
         <v>137.841438974359</v>
@@ -33272,19 +33272,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33497,28 +33497,28 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>446.0127311990643</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>653.3850396373771</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33676,7 +33676,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
         <v>345.4516222043725</v>
@@ -33731,34 +33731,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>446.0127311990643</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>454.8099857531869</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33901,7 +33901,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175679</v>
       </c>
       <c r="N38" t="n">
         <v>981.2715114159425</v>
@@ -33971,19 +33971,19 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>613.2529048371032</v>
       </c>
       <c r="N39" t="n">
-        <v>752.2150000824579</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
         <v>700.0808204437243</v>
@@ -33992,7 +33992,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>182.6892564418561</v>
@@ -34126,13 +34126,13 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L41" t="n">
         <v>867.846407116256</v>
@@ -34205,34 +34205,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>506.5665344352332</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>452.8027404478649</v>
       </c>
       <c r="P42" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34375,7 +34375,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175679</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
         <v>981.2715114159425</v>
@@ -34390,7 +34390,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S44" t="n">
         <v>125.31755462929</v>
@@ -34442,25 +34442,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>452.3405299254388</v>
       </c>
       <c r="N45" t="n">
-        <v>253.6713445157999</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
         <v>561.8765786214698</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K4" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L4" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M4" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N4" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O4" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P4" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K7" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L7" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M7" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N7" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O7" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P7" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q7" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,25 +35249,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597635</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
         <v>159.2338966127272</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>11.94217529034292</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K10" t="n">
-        <v>99.3038931996671</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L10" t="n">
-        <v>157.2826706286438</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M10" t="n">
         <v>169.1237184840382</v>
       </c>
       <c r="N10" t="n">
-        <v>173.0392293230784</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O10" t="n">
-        <v>139.3114638567574</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P10" t="n">
-        <v>99.95050783106939</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q10" t="n">
-        <v>13.05128016014223</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,31 +35404,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902951</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902405</v>
@@ -35483,34 +35483,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>25.73094315394538</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>603.412613764194</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992801</v>
+        <v>159.0482712280113</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071398</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
         <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
         <v>264.332588409635</v>
@@ -35577,7 +35577,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
         <v>373.2618997060455</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>261.3487819164529</v>
+        <v>369.8203919190988</v>
       </c>
       <c r="M15" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238455</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992801</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071398</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35960,16 +35960,16 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>25.73094315394657</v>
+        <v>477.9853321427316</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
@@ -36212,7 +36212,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>546.2057666753343</v>
       </c>
       <c r="P21" t="n">
         <v>427.9021712071395</v>
@@ -36221,7 +36221,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36291,7 +36291,7 @@
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060407</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36434,19 +36434,19 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>572.7987818204766</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
@@ -36458,7 +36458,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>23.94570355317173</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36531,7 +36531,7 @@
         <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066232</v>
       </c>
       <c r="Q25" t="n">
         <v>120.4022572998984</v>
@@ -36668,25 +36668,25 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>55.9645526312509</v>
       </c>
       <c r="M27" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>427.9021712071395</v>
@@ -36853,7 +36853,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>122.3296324324666</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -36920,19 +36920,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>303.8786972770459</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>510.7887951929326</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37324,7 +37324,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
         <v>129.8660843902404</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>303.8786972770459</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>320.8355783388566</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37470,7 +37470,7 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010434</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
@@ -37549,7 +37549,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N38" t="n">
         <v>751.8584478193516</v>
@@ -37619,19 +37619,19 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>471.1188709150848</v>
       </c>
       <c r="N39" t="n">
-        <v>620.8732879991246</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>557.4845759992799</v>
@@ -37640,7 +37640,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>37.00975247789211</v>
@@ -37774,13 +37774,13 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L41" t="n">
         <v>632.0799921462688</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>364.4325005132149</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>310.2064960034205</v>
       </c>
       <c r="P42" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38023,7 +38023,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
         <v>751.8584478193516</v>
@@ -38038,7 +38038,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,25 +38090,25 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>310.2064960034205</v>
       </c>
       <c r="N45" t="n">
-        <v>122.3296324324666</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>427.9021712071395</v>
